--- a/data/trans_dic/P7C_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P7C_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 6 años</t>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>43,54%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13,8%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20,9%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>15,18%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>14,85%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>15,91%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>14,47%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>46,54%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>15,2%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>14,23%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 18,88</t>
+          <t>12,34; 18,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,5; 18,66</t>
+          <t>11,85; 19,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,25; 19,81</t>
+          <t>12,9; 19,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,93; 18,26</t>
+          <t>10,72; 16,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,31; 56,81</t>
+          <t>17,62; 31,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,58; 17,5</t>
+          <t>12,77; 18,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 18,08</t>
+          <t>14,01; 20,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,27; 18,49</t>
+          <t>12,66; 17,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,68; 17,75</t>
+          <t>12,67; 18,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37,61; 49,62</t>
+          <t>13,31; 18,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,41; 17,48</t>
+          <t>12,69; 17,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 17,29</t>
+          <t>18,41; 24,95</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,14; 18,31</t>
+          <t>11,66; 16,01</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>12,84; 16,83</t>
+          <t>18,24; 23,79</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>41,88; 51,36</t>
+          <t>13,38; 17,29</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 17,61</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 17,77</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 16,42</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 26,28</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>12,76; 16,3</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 21,21</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>16,83%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>18,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18,33%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17,54%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>15,92%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>17,85%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>17,26%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>16,54%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>40,59%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>17,2%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>19,67%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,69; 19,77</t>
+          <t>11,56; 19,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,13; 24,81</t>
+          <t>11,96; 21,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,92; 21,04</t>
+          <t>12,05; 19,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 19,6</t>
+          <t>11,67; 19,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,07; 49,22</t>
+          <t>15,89; 23,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,87; 19,98</t>
+          <t>10,37; 19,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 22,33</t>
+          <t>14,97; 25,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 21,92</t>
+          <t>14,2; 20,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,08; 21,39</t>
+          <t>14,98; 21,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,76; 53,44</t>
+          <t>15,2; 21,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,64</t>
+          <t>14,76; 20,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,89; 21,96</t>
+          <t>20,73; 30,38</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,18</t>
+          <t>13,12; 22,68</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 19,34</t>
+          <t>14,86; 25,4</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>33,11; 48,23</t>
+          <t>13,67; 18,62</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 20,75</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>14,42; 19,46</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14,0; 19,2</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>19,35; 25,76</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>12,29; 19,16</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>16,08; 23,48</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>26,6%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>13,69%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,2%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>14,05%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>14,11%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>14,43%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>13,62%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>12,0%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>15,22%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>20,43%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 27,96</t>
+          <t>7,85; 26,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 31,53</t>
+          <t>9,8; 34,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 24,71</t>
+          <t>7,57; 24,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 24,55</t>
+          <t>6,5; 27,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>15,38; 42,34</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>9,07; 20,04</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 19,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 19,62</t>
+          <t>9,31; 20,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 17,0</t>
+          <t>7,87; 18,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>9,8; 20,03</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7,79; 18,18</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8,75; 21,07</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>9,89; 20,83</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>9,74; 21,97</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>9,93; 19,2</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 18,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,04; 21,32</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>10,59; 24,44</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 19,55</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8,58; 20,05</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 32,12</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>15,13%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17,81%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>15,62%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>16,08%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16,55%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>15,77%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22,05%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20,61%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>15,35%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>15,97%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>16,17%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>14,98%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>44,95%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>21,76%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>19,21%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 17,73</t>
+          <t>12,79; 17,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 19,24</t>
+          <t>13,24; 19,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,63; 18,38</t>
+          <t>13,18; 17,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 16,59</t>
+          <t>11,69; 16,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,14; 52,67</t>
+          <t>18,45; 26,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,16; 17,65</t>
+          <t>12,81; 17,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,44</t>
+          <t>15,16; 20,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,85; 18,64</t>
+          <t>13,9; 17,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,05; 17,94</t>
+          <t>14,36; 18,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,15; 48,58</t>
+          <t>14,73; 18,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,91; 16,87</t>
+          <t>14,03; 17,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,25; 17,95</t>
+          <t>19,49; 24,68</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,69; 17,77</t>
+          <t>12,59; 16,71</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 16,61</t>
+          <t>18,1; 22,98</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>40,59; 48,52</t>
+          <t>13,8; 16,84</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 17,88</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>14,51; 17,53</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>13,37; 16,32</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>19,93; 24,72</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 16,76</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 21,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>250404</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>244613</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>258217</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>217876</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>355563</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35367</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>38526</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>270518</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>279564</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>282116</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>272111</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>383521</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>32834</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>48508</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>520922</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>524177</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>540333</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>489987</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>739085</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>68201</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>87034</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>202326; 305613</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>194320; 315793</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>211042; 312917</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>175274; 273201</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>286570; 512373</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29242; 43084</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>31433; 45949</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>226779; 321694</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>229050; 331722</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>241449; 330409</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>229409; 315057</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>325738; 441277</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>27728; 38096</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>42326; 55195</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>459015; 593341</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>445668; 607231</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>462766; 613107</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>435573; 565338</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>645430; 892400</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>59592; 76116</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>78035; 96795</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>207898</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>219033</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>212013</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>203638</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>262616</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10214</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14446</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>237214</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>253907</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>248346</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>245386</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>342560</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>11500</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13004</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>445113</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>472940</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>460358</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>449024</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>605177</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>21715</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>27449</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>160306; 266060</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>163747; 299853</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>165745; 272168</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>161006; 265593</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>215082; 317678</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7494; 14200</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10938; 18298</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>200145; 285483</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>206770; 302823</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>207562; 297376</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>202797; 285840</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>286024; 419137</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8605; 14872</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9876; 16880</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>382302; 520605</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>397475; 570616</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>395223; 533260</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>385529; 528813</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>528910; 704067</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>16937; 26418</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>22434; 32762</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61390</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74308</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>58236</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>53548</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>109441</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>56399</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>52748</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>57670</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49316</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>57285</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>117788</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>127056</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>115906</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>102864</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>166726</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33178; 113063</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>41424; 146352</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32006; 104233</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27479; 115998</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>63272; 174164</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38333; 83019</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32409; 78160</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40143; 82028</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32102; 74897</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35421; 85252</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>83765; 177930</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>88409; 204028</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>82971; 162768</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>71597; 167319</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>115668; 262138</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>519691</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>537954</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>528465</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>475062</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>727621</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>45582</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52972</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>564131</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>586219</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>588132</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>566813</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>783366</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>44334</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>61512</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1083823</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1124173</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1116598</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1041875</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1510987</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>89915</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>114483</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>441081; 614615</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>454623; 652314</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>452558; 612544</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>401710; 569680</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>625808; 881633</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38587; 52800</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>45087; 61747</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>502332; 640397</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>517088; 662118</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>528715; 662861</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>504196; 632183</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>692585; 876863</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>38205; 50707</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>54032; 68598</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>974676; 1189338</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1003699; 1257378</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1019262; 1230972</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>940028; 1147821</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1384039; 1716477</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>81513; 101367</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>104234; 125690</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
